--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N2">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O2">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P2">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q2">
-        <v>79580.82875960594</v>
+        <v>205858.3065682682</v>
       </c>
       <c r="R2">
-        <v>716227.4588364534</v>
+        <v>1852724.759114414</v>
       </c>
       <c r="S2">
-        <v>0.2614638357710384</v>
+        <v>0.3879535473474867</v>
       </c>
       <c r="T2">
-        <v>0.2614638357710384</v>
+        <v>0.3879535473474867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>188.379193</v>
       </c>
       <c r="O3">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P3">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q3">
-        <v>10197.54950420911</v>
+        <v>12649.01872055812</v>
       </c>
       <c r="R3">
-        <v>91777.94553788197</v>
+        <v>113841.168485023</v>
       </c>
       <c r="S3">
-        <v>0.03350417996889389</v>
+        <v>0.02383790950635221</v>
       </c>
       <c r="T3">
-        <v>0.03350417996889389</v>
+        <v>0.0238379095063522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H4">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J4">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N4">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O4">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P4">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q4">
-        <v>29143.15050166718</v>
+        <v>37697.34823362886</v>
       </c>
       <c r="R4">
-        <v>262288.3545150046</v>
+        <v>339276.1341026597</v>
       </c>
       <c r="S4">
-        <v>0.0957501955607467</v>
+        <v>0.07104313746980055</v>
       </c>
       <c r="T4">
-        <v>0.0957501955607467</v>
+        <v>0.07104313746980055</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H5">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J5">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N5">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O5">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P5">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q5">
-        <v>97.07980962404599</v>
+        <v>273.5001103450045</v>
       </c>
       <c r="R5">
-        <v>873.7182866164139</v>
+        <v>2461.500993105041</v>
       </c>
       <c r="S5">
-        <v>0.0003189569623219255</v>
+        <v>0.0005154289849998652</v>
       </c>
       <c r="T5">
-        <v>0.0003189569623219255</v>
+        <v>0.0005154289849998651</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J6">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N6">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O6">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P6">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q6">
-        <v>32056.59255681813</v>
+        <v>66852.28908737715</v>
       </c>
       <c r="R6">
-        <v>288509.3330113631</v>
+        <v>601670.6017863944</v>
       </c>
       <c r="S6">
-        <v>0.1053223468804761</v>
+        <v>0.1259875451814556</v>
       </c>
       <c r="T6">
-        <v>0.1053223468804761</v>
+        <v>0.1259875451814557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J7">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>188.379193</v>
       </c>
       <c r="O7">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P7">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q7">
         <v>4107.756788031128</v>
@@ -883,10 +883,10 @@
         <v>36969.81109228014</v>
       </c>
       <c r="S7">
-        <v>0.01349608772556916</v>
+        <v>0.007741338419243755</v>
       </c>
       <c r="T7">
-        <v>0.01349608772556916</v>
+        <v>0.007741338419243755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J8">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N8">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O8">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P8">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q8">
-        <v>11739.38643283112</v>
+        <v>12242.17795217475</v>
       </c>
       <c r="R8">
-        <v>105654.4778954801</v>
+        <v>110179.6015695727</v>
       </c>
       <c r="S8">
-        <v>0.03856990501567267</v>
+        <v>0.02307119126247332</v>
       </c>
       <c r="T8">
-        <v>0.03856990501567267</v>
+        <v>0.02307119126247332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J9">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N9">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O9">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P9">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q9">
-        <v>39.10549753147511</v>
+        <v>88.81890047099114</v>
       </c>
       <c r="R9">
-        <v>351.949477783276</v>
+        <v>799.3701042389201</v>
       </c>
       <c r="S9">
-        <v>0.0001284816147768525</v>
+        <v>0.0001673850722064368</v>
       </c>
       <c r="T9">
-        <v>0.0001284816147768525</v>
+        <v>0.0001673850722064367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H10">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J10">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N10">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O10">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P10">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q10">
-        <v>29980.33853122788</v>
+        <v>61760.47452159828</v>
       </c>
       <c r="R10">
-        <v>269823.046781051</v>
+        <v>555844.2706943845</v>
       </c>
       <c r="S10">
-        <v>0.09850078759255081</v>
+        <v>0.1163916850184147</v>
       </c>
       <c r="T10">
-        <v>0.09850078759255082</v>
+        <v>0.1163916850184147</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H11">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J11">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>188.379193</v>
       </c>
       <c r="O11">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P11">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q11">
-        <v>3841.703976829231</v>
+        <v>3794.888879818793</v>
       </c>
       <c r="R11">
-        <v>34575.33579146308</v>
+        <v>34153.99991836914</v>
       </c>
       <c r="S11">
-        <v>0.01262196779469172</v>
+        <v>0.007151718224335998</v>
       </c>
       <c r="T11">
-        <v>0.01262196779469173</v>
+        <v>0.007151718224335997</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H12">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J12">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N12">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O12">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P12">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q12">
-        <v>10979.04522389184</v>
+        <v>11309.75064318212</v>
       </c>
       <c r="R12">
-        <v>98811.40701502655</v>
+        <v>101787.755788639</v>
       </c>
       <c r="S12">
-        <v>0.03607179420076039</v>
+        <v>0.02131397054013438</v>
       </c>
       <c r="T12">
-        <v>0.0360717942007604</v>
+        <v>0.02131397054013438</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H13">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J13">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N13">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O13">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P13">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q13">
-        <v>36.57269724933266</v>
+        <v>82.05399567403558</v>
       </c>
       <c r="R13">
-        <v>329.1542752439939</v>
+        <v>738.4859610663202</v>
       </c>
       <c r="S13">
-        <v>0.0001201600668948697</v>
+        <v>0.0001546361632253139</v>
       </c>
       <c r="T13">
-        <v>0.0001201600668948698</v>
+        <v>0.0001546361632253139</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H14">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J14">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N14">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O14">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P14">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q14">
-        <v>61894.42574101322</v>
+        <v>91427.96083784135</v>
       </c>
       <c r="R14">
-        <v>557049.8316691191</v>
+        <v>822851.6475405722</v>
       </c>
       <c r="S14">
-        <v>0.2033549313236776</v>
+        <v>0.172302018437254</v>
       </c>
       <c r="T14">
-        <v>0.2033549313236777</v>
+        <v>0.172302018437254</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H15">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J15">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>188.379193</v>
       </c>
       <c r="O15">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P15">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q15">
-        <v>7931.200018476688</v>
+        <v>5617.815513491515</v>
       </c>
       <c r="R15">
-        <v>71380.8001662902</v>
+        <v>50560.33962142363</v>
       </c>
       <c r="S15">
-        <v>0.02605805960330532</v>
+        <v>0.01058714361900189</v>
       </c>
       <c r="T15">
-        <v>0.02605805960330533</v>
+        <v>0.01058714361900189</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H16">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J16">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N16">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O16">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P16">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q16">
-        <v>22666.24503287648</v>
+        <v>16742.54362357588</v>
       </c>
       <c r="R16">
-        <v>203996.2052958883</v>
+        <v>150682.8926121829</v>
       </c>
       <c r="S16">
-        <v>0.07447023939301177</v>
+        <v>0.03155242700023027</v>
       </c>
       <c r="T16">
-        <v>0.07447023939301178</v>
+        <v>0.03155242700023026</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H17">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J17">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N17">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O17">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P17">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q17">
-        <v>75.50435401820222</v>
+        <v>121.4697516686112</v>
       </c>
       <c r="R17">
-        <v>679.53918616382</v>
+        <v>1093.2277650175</v>
       </c>
       <c r="S17">
-        <v>0.0002480705256117432</v>
+        <v>0.0002289177533850362</v>
       </c>
       <c r="T17">
-        <v>0.0002480705256117432</v>
+        <v>0.0002289177533850361</v>
       </c>
     </row>
   </sheetData>
